--- a/fitness-keywords-wordstream.xlsx
+++ b/fitness-keywords-wordstream.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="147">
   <si>
     <t>Keyword</t>
   </si>
@@ -331,19 +331,162 @@
   </si>
   <si>
     <t>workout routines for men</t>
+  </si>
+  <si>
+    <t>workout </t>
+  </si>
+  <si>
+    <t>outside workout</t>
+  </si>
+  <si>
+    <t>fitness for women </t>
+  </si>
+  <si>
+    <t>fitness classes </t>
+  </si>
+  <si>
+    <t>fitness help </t>
+  </si>
+  <si>
+    <t>fitness coach </t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>Strength work for runners</t>
+  </si>
+  <si>
+    <t>workouts to run faster</t>
+  </si>
+  <si>
+    <t>hip stretches</t>
+  </si>
+  <si>
+    <t>30 minute strength workouts</t>
+  </si>
+  <si>
+    <t>personnel training</t>
+  </si>
+  <si>
+    <t>powerlifting for beginners</t>
+  </si>
+  <si>
+    <t>group fitness classes</t>
+  </si>
+  <si>
+    <t>marathon running plan</t>
+  </si>
+  <si>
+    <t>Best Powerlifting gym in amarillo</t>
+  </si>
+  <si>
+    <t>half marathon training</t>
+  </si>
+  <si>
+    <t>gym with daycare</t>
+  </si>
+  <si>
+    <t>HIIT workouts</t>
+  </si>
+  <si>
+    <t>nutrition coach</t>
+  </si>
+  <si>
+    <t>HIIT workouts 20 minutes or less</t>
+  </si>
+  <si>
+    <t>gym to workout with family </t>
+  </si>
+  <si>
+    <t>gym with dietician</t>
+  </si>
+  <si>
+    <t>gym with mobile fitness track</t>
+  </si>
+  <si>
+    <t>24 hours fitness club</t>
+  </si>
+  <si>
+    <t>gym near me</t>
+  </si>
+  <si>
+    <t>gym without contract</t>
+  </si>
+  <si>
+    <t>fitness club with swimming pool</t>
+  </si>
+  <si>
+    <t>best weight loss program in amarillo</t>
+  </si>
+  <si>
+    <t>popular fitness club in amarillo</t>
+  </si>
+  <si>
+    <t>gym that supports cancer survivors</t>
+  </si>
+  <si>
+    <t>gym for special needs people</t>
+  </si>
+  <si>
+    <t>gym with day care</t>
+  </si>
+  <si>
+    <t>gym for children and teens</t>
+  </si>
+  <si>
+    <t>gym with sauna and massage</t>
+  </si>
+  <si>
+    <t>cpr certified fitness trainer near me</t>
+  </si>
+  <si>
+    <t>Gym with pool</t>
+  </si>
+  <si>
+    <t>Gym with hot tub</t>
+  </si>
+  <si>
+    <t>Gym with sauna </t>
+  </si>
+  <si>
+    <t>Gym with basketball court</t>
+  </si>
+  <si>
+    <t>Upscale gym</t>
+  </si>
+  <si>
+    <t>Gym with indoor track</t>
+  </si>
+  <si>
+    <t>Indoor track</t>
+  </si>
+  <si>
+    <t>Fancy gym </t>
+  </si>
+  <si>
+    <t>Rock climbing </t>
+  </si>
+  <si>
+    <t>Rock climbing near me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -366,8 +509,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,6 +810,776 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -677,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/fitness-keywords-wordstream.xlsx
+++ b/fitness-keywords-wordstream.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
   <si>
     <t>Keyword</t>
   </si>
@@ -1585,524 +1584,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A101"/>
-  <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A101"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>